--- a/project/presentation/data/PR_2018-20_RPDB2019_neighb_TOR.xlsx
+++ b/project/presentation/data/PR_2018-20_RPDB2019_neighb_TOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ont\loaddataON\PR\PR_2018_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lichunjiang/Documents/GitHub/ggr274/20241/project/presentation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AFBCFF-BFC0-499B-A24B-9FC43FC9AAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8E5CD4-08C9-014A-B4F0-9C8542605F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="2420" windowWidth="31720" windowHeight="18040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="3" r:id="rId1"/>
@@ -1965,9 +1965,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2005,7 +2005,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2111,7 +2111,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2253,7 +2253,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2265,13 +2265,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="62" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="13"/>
+    <col min="2" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" s="85" customFormat="1" ht="15.6">
+    <row r="1" spans="1:152" s="85" customFormat="1" ht="16">
       <c r="A1" s="81"/>
       <c r="B1" s="23" t="s">
         <v>222</v>
@@ -2333,7 +2333,7 @@
       <c r="BE1" s="82"/>
       <c r="BF1" s="82"/>
     </row>
-    <row r="2" spans="1:152" s="88" customFormat="1" ht="15.6">
+    <row r="2" spans="1:152" s="88" customFormat="1" ht="16">
       <c r="A2" s="86"/>
       <c r="B2" s="141"/>
       <c r="C2" s="141"/>
@@ -2351,7 +2351,7 @@
       <c r="R2" s="87"/>
       <c r="EV2" s="86"/>
     </row>
-    <row r="3" spans="1:152" s="92" customFormat="1" ht="15.6">
+    <row r="3" spans="1:152" s="92" customFormat="1" ht="16">
       <c r="A3" s="89" t="s">
         <v>192</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="P7" s="140"/>
       <c r="Q7" s="140"/>
     </row>
-    <row r="8" spans="1:152" s="14" customFormat="1" ht="13.8">
+    <row r="8" spans="1:152" s="14" customFormat="1" ht="14">
       <c r="A8" s="95" t="s">
         <v>196</v>
       </c>
@@ -2465,7 +2465,7 @@
       <c r="P8" s="97"/>
       <c r="Q8" s="97"/>
     </row>
-    <row r="9" spans="1:152" s="14" customFormat="1" ht="13.8">
+    <row r="9" spans="1:152" s="14" customFormat="1" ht="14">
       <c r="A9" s="95" t="s">
         <v>198</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="P9" s="97"/>
       <c r="Q9" s="97"/>
     </row>
-    <row r="10" spans="1:152" s="14" customFormat="1" ht="13.8">
+    <row r="10" spans="1:152" s="14" customFormat="1" ht="14">
       <c r="A10" s="95" t="s">
         <v>200</v>
       </c>
@@ -2511,7 +2511,7 @@
       <c r="P10" s="97"/>
       <c r="Q10" s="97"/>
     </row>
-    <row r="11" spans="1:152" s="14" customFormat="1" ht="13.8">
+    <row r="11" spans="1:152" s="14" customFormat="1" ht="14">
       <c r="A11" s="95" t="s">
         <v>202</v>
       </c>
@@ -2534,7 +2534,7 @@
       <c r="P11" s="97"/>
       <c r="Q11" s="97"/>
     </row>
-    <row r="12" spans="1:152" s="14" customFormat="1" ht="13.8">
+    <row r="12" spans="1:152" s="14" customFormat="1" ht="14">
       <c r="A12" s="95" t="s">
         <v>204</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="P27" s="144"/>
       <c r="Q27" s="144"/>
     </row>
-    <row r="29" spans="1:17" s="14" customFormat="1" ht="14.4" customHeight="1">
+    <row r="29" spans="1:17" s="14" customFormat="1" ht="14.5" customHeight="1">
       <c r="A29" s="93">
         <v>5</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="O33" s="100"/>
       <c r="P33" s="100"/>
     </row>
-    <row r="34" spans="1:16" s="101" customFormat="1" ht="13.8">
+    <row r="34" spans="1:16" s="101" customFormat="1" ht="14">
       <c r="A34" s="19" t="s">
         <v>210</v>
       </c>
@@ -2952,40 +2952,40 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="11" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="15" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="11" customWidth="1"/>
     <col min="10" max="10" width="13" style="11" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="11" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="11" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" style="11" customWidth="1"/>
     <col min="16" max="16" width="16" style="11" customWidth="1"/>
     <col min="17" max="17" width="14" style="11" customWidth="1"/>
     <col min="18" max="18" width="8" style="11" customWidth="1"/>
     <col min="19" max="19" width="12" style="11" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" style="11" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" style="11" customWidth="1"/>
-    <col min="22" max="22" width="14.21875" style="11" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="11" customWidth="1"/>
+    <col min="21" max="21" width="9.83203125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="11" customWidth="1"/>
     <col min="23" max="23" width="17.33203125" style="11" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" style="11" customWidth="1"/>
+    <col min="24" max="24" width="12.83203125" style="11" customWidth="1"/>
     <col min="25" max="25" width="8.6640625" style="11" customWidth="1"/>
-    <col min="26" max="26" width="10.109375" style="11" customWidth="1"/>
-    <col min="27" max="27" width="9.109375" style="11"/>
-    <col min="28" max="28" width="10.109375" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="9.109375" style="11"/>
+    <col min="26" max="26" width="10.1640625" style="11" customWidth="1"/>
+    <col min="27" max="27" width="9.1640625" style="11"/>
+    <col min="28" max="28" width="10.1640625" style="11" customWidth="1"/>
+    <col min="29" max="16384" width="9.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="9" customFormat="1" ht="15.6">
+    <row r="1" spans="1:119" s="9" customFormat="1" ht="16">
       <c r="A1" s="22"/>
       <c r="B1" s="23" t="s">
         <v>151</v>
@@ -3018,7 +3018,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:119" s="13" customFormat="1" ht="13.8">
+    <row r="7" spans="1:119" s="13" customFormat="1" ht="14">
       <c r="A7" s="19" t="s">
         <v>190</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="CA11" s="17"/>
       <c r="DO11" s="13"/>
     </row>
-    <row r="12" spans="1:119" s="14" customFormat="1" ht="13.8" thickBot="1">
+    <row r="12" spans="1:119" s="14" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="19" t="s">
         <v>223</v>
       </c>
@@ -17119,7 +17119,7 @@
         <v>62.1</v>
       </c>
     </row>
-    <row r="174" spans="1:28" s="20" customFormat="1" ht="13.8" thickBot="1">
+    <row r="174" spans="1:28" s="20" customFormat="1" ht="14" thickBot="1">
       <c r="A174" s="74" t="s">
         <v>22</v>
       </c>
@@ -17206,45 +17206,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19ABC380-2AE8-4C42-92D8-E0CCD978A20C}">
   <dimension ref="A1:EG174"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12" style="11" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" style="11" customWidth="1"/>
     <col min="3" max="3" width="13" style="11" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="11" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="15" style="11" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="11" customWidth="1"/>
     <col min="10" max="10" width="13" style="11" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="11" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" style="11" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" style="11" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" style="11" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="11" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="11" customWidth="1"/>
+    <col min="17" max="17" width="12.1640625" style="11" customWidth="1"/>
     <col min="18" max="18" width="8" style="11" customWidth="1"/>
     <col min="19" max="19" width="12" style="11" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" style="11" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" style="11" customWidth="1"/>
-    <col min="22" max="22" width="13.5546875" style="11" customWidth="1"/>
-    <col min="23" max="23" width="13.109375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="11" customWidth="1"/>
+    <col min="21" max="21" width="9.83203125" style="11" customWidth="1"/>
+    <col min="22" max="22" width="13.5" style="11" customWidth="1"/>
+    <col min="23" max="23" width="13.1640625" style="11" customWidth="1"/>
     <col min="24" max="24" width="11.6640625" style="11" customWidth="1"/>
     <col min="25" max="25" width="8.6640625" style="11" customWidth="1"/>
-    <col min="26" max="26" width="8.77734375" style="11" customWidth="1"/>
-    <col min="27" max="27" width="9.109375" style="11"/>
-    <col min="28" max="28" width="10.109375" style="11" customWidth="1"/>
-    <col min="29" max="29" width="12.88671875" style="11" customWidth="1"/>
-    <col min="30" max="30" width="12.5546875" style="11" customWidth="1"/>
-    <col min="31" max="31" width="12.109375" style="11" customWidth="1"/>
-    <col min="32" max="16384" width="9.109375" style="11"/>
+    <col min="26" max="26" width="8.83203125" style="11" customWidth="1"/>
+    <col min="27" max="27" width="9.1640625" style="11"/>
+    <col min="28" max="28" width="10.1640625" style="11" customWidth="1"/>
+    <col min="29" max="29" width="12.83203125" style="11" customWidth="1"/>
+    <col min="30" max="30" width="12.5" style="11" customWidth="1"/>
+    <col min="31" max="31" width="12.1640625" style="11" customWidth="1"/>
+    <col min="32" max="16384" width="9.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:137" s="9" customFormat="1" ht="15.6">
+    <row r="1" spans="1:137" s="9" customFormat="1" ht="16">
       <c r="A1" s="22"/>
       <c r="B1" s="23" t="s">
         <v>211</v>
@@ -17277,7 +17279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:137" s="13" customFormat="1" ht="13.8">
+    <row r="7" spans="1:137" s="13" customFormat="1" ht="14">
       <c r="A7" s="19" t="s">
         <v>190</v>
       </c>
@@ -17486,7 +17488,7 @@
       <c r="DV9" s="28"/>
       <c r="DW9" s="28"/>
     </row>
-    <row r="10" spans="1:137" customFormat="1" ht="14.4">
+    <row r="10" spans="1:137" customFormat="1" ht="15">
       <c r="A10" s="24" t="s">
         <v>213</v>
       </c>
@@ -17627,7 +17629,7 @@
       <c r="EF10" s="105"/>
       <c r="EG10" s="105"/>
     </row>
-    <row r="11" spans="1:137" customFormat="1" ht="14.4">
+    <row r="11" spans="1:137" customFormat="1" ht="15">
       <c r="A11" s="38" t="s">
         <v>24</v>
       </c>
@@ -17768,7 +17770,7 @@
       <c r="EF11" s="109"/>
       <c r="EG11" s="60"/>
     </row>
-    <row r="12" spans="1:137" s="14" customFormat="1" ht="13.8" thickBot="1">
+    <row r="12" spans="1:137" s="14" customFormat="1" ht="14" thickBot="1">
       <c r="A12" s="19" t="s">
         <v>223</v>
       </c>
@@ -34882,7 +34884,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="173" spans="1:35" s="20" customFormat="1" ht="13.8" thickBot="1">
+    <row r="173" spans="1:35" s="20" customFormat="1" ht="14" thickBot="1">
       <c r="A173" s="124"/>
       <c r="B173" s="125" t="s">
         <v>147</v>
@@ -34967,7 +34969,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="174" spans="1:35" s="20" customFormat="1" ht="13.8" thickBot="1">
+    <row r="174" spans="1:35" s="20" customFormat="1" ht="14" thickBot="1">
       <c r="A174" s="133" t="s">
         <v>22</v>
       </c>
